--- a/SignalAnalysis/localization/Korean (ko-KR) translation.xlsx
+++ b/SignalAnalysis/localization/Korean (ko-KR) translation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthurit\source\repos\SignalAnalysis\SignalAnalysis\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043EA3DF-7FCC-4D48-829D-00C167C60F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1663783E-AA15-4F91-A1BF-ADE14892E2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="322">
   <si>
     <t>Key</t>
   </si>
@@ -708,37 +708,10 @@
     <t>strPlotWindowYLabel</t>
   </si>
   <si>
-    <t>strRadBackwardOne</t>
-  </si>
-  <si>
-    <t>In "settings" form, mathematical name</t>
-  </si>
-  <si>
-    <t>Backward one-point difference</t>
-  </si>
-  <si>
-    <t>strRadCentralFive</t>
-  </si>
-  <si>
-    <t>Central five-point difference</t>
-  </si>
-  <si>
-    <t>strRadCentralThree</t>
-  </si>
-  <si>
-    <t>Central three-point difference</t>
-  </si>
-  <si>
     <t>strRadCurrentCulture</t>
   </si>
   <si>
     <t>Current culture formatting</t>
-  </si>
-  <si>
-    <t>strRadForwardOne</t>
-  </si>
-  <si>
-    <t>Forward one-point difference</t>
   </si>
   <si>
     <t>strRadInvariantCulture</t>
@@ -1096,9 +1069,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1106,6 +1076,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1124,16 +1097,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DD7C0AF-0A3F-45E4-9CF3-D3036D280B58}" name="Tabla13" displayName="Tabla13" ref="B2:E169" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="B2:E169" xr:uid="{64291C3F-0D0C-4C57-A011-4795D69358B3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E169">
-    <sortCondition ref="B2:B169"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DD7C0AF-0A3F-45E4-9CF3-D3036D280B58}" name="Tabla13" displayName="Tabla13" ref="B2:E165" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="B2:E165" xr:uid="{64291C3F-0D0C-4C57-A011-4795D69358B3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E165">
+    <sortCondition ref="B2:B165"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{15B209E7-880B-40F3-8D04-E1E0C18F3997}" name="Key" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{1492BE55-1C7C-4C02-9979-85AD6633F924}" name="Comment" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{3A0B826D-ACD0-42A2-BC11-CDF70F40C5E5}" name="English" dataDxfId="2"/>
-    <tableColumn id="31" xr3:uid="{482B5252-4A88-4C9D-8D6A-67323FB06C35}" name="ko-KR" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{15B209E7-880B-40F3-8D04-E1E0C18F3997}" name="Key" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1492BE55-1C7C-4C02-9979-85AD6633F924}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3A0B826D-ACD0-42A2-BC11-CDF70F40C5E5}" name="English" dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{482B5252-4A88-4C9D-8D6A-67323FB06C35}" name="ko-KR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1469,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -1531,13 +1504,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1546,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>15</v>
@@ -1555,13 +1528,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -1606,7 +1579,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>25</v>
@@ -1615,13 +1588,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -1948,49 +1921,49 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C53" t="s">
         <v>96</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C54" t="s">
         <v>96</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C55" t="s">
         <v>96</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -2043,7 +2016,7 @@
         <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>109</v>
@@ -2070,13 +2043,13 @@
     </row>
     <row r="65" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E65" s="1"/>
     </row>
@@ -2109,13 +2082,13 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C69" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E69" s="1"/>
     </row>
@@ -2648,169 +2621,160 @@
       <c r="B127" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>224</v>
       </c>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="C128" t="s">
-        <v>223</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C129" t="s">
-        <v>223</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C131" t="s">
-        <v>223</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="4" t="s">
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B137" s="4" t="s">
+      <c r="D137" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B138" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="D138" s="3" t="s">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C144" t="s">
         <v>255</v>
       </c>
       <c r="D144" s="3" t="s">
@@ -2818,7 +2782,7 @@
       </c>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
         <v>257</v>
       </c>
@@ -2838,231 +2802,197 @@
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
-        <v>261</v>
+        <v>298</v>
+      </c>
+      <c r="C147" t="s">
+        <v>255</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C148" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
+      </c>
+      <c r="C149" t="s">
+        <v>264</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
+      </c>
+      <c r="C150" t="s">
+        <v>264</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="4" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C151" t="s">
         <v>264</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="C152" t="s">
+        <v>264</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C153" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C154" t="s">
+        <v>272</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C155" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="C156" t="s">
-        <v>273</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="E161" s="1"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="E162" s="1"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E169" s="1"/>
+    <row r="180" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D180" s="2"/>
+    </row>
+    <row r="182" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D182" s="2"/>
     </row>
     <row r="184" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D184" s="2"/>
       <c r="F184" s="2"/>
       <c r="H184" s="2"/>
       <c r="N184" s="2"/>
@@ -3075,7 +3005,6 @@
       <c r="AF184" s="2"/>
     </row>
     <row r="186" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D186" s="2"/>
       <c r="F186" s="2"/>
       <c r="H186" s="2"/>
       <c r="J186" s="2"/>
@@ -3091,6 +3020,12 @@
       <c r="AD186" s="2"/>
       <c r="AF186" s="2"/>
       <c r="AH186" s="2"/>
+    </row>
+    <row r="225" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D225" s="2"/>
+    </row>
+    <row r="227" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D227" s="2"/>
     </row>
     <row r="229" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D229" s="2"/>
@@ -3146,7 +3081,6 @@
       <c r="AH233" s="2"/>
     </row>
     <row r="235" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D235" s="2"/>
       <c r="F235" s="2"/>
       <c r="H235" s="2"/>
       <c r="J235" s="2"/>
@@ -3159,7 +3093,6 @@
       <c r="AF235" s="2"/>
     </row>
     <row r="237" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D237" s="2"/>
       <c r="F237" s="2"/>
       <c r="H237" s="2"/>
       <c r="J237" s="2"/>
@@ -3175,8 +3108,10 @@
       <c r="AF237" s="2"/>
       <c r="AH237" s="2"/>
     </row>
-    <row r="243" spans="4:32" x14ac:dyDescent="0.25">
-      <c r="D243" s="2"/>
+    <row r="239" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D239" s="2"/>
+    </row>
+    <row r="243" spans="6:32" x14ac:dyDescent="0.25">
       <c r="F243" s="2"/>
       <c r="H243" s="2"/>
       <c r="J243" s="2"/>
@@ -3190,8 +3125,13 @@
       <c r="AD243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="273" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D273" s="2"/>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D269" s="2"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D270" s="2"/>
+    </row>
+    <row r="273" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F273" s="2"/>
       <c r="H273" s="2"/>
       <c r="J273" s="2"/>
@@ -3208,8 +3148,7 @@
       <c r="AF273" s="2"/>
       <c r="AH273" s="2"/>
     </row>
-    <row r="274" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D274" s="2"/>
+    <row r="274" spans="6:34" x14ac:dyDescent="0.25">
       <c r="F274" s="2"/>
       <c r="H274" s="2"/>
       <c r="J274" s="2"/>
@@ -3226,6 +3165,12 @@
       <c r="AF274" s="2"/>
       <c r="AH274" s="2"/>
     </row>
+    <row r="316" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D316" s="2"/>
+    </row>
+    <row r="319" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D319" s="2"/>
+    </row>
     <row r="320" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D320" s="2"/>
       <c r="L320" s="2"/>
@@ -3233,22 +3178,22 @@
       <c r="P320" s="2"/>
       <c r="AH320" s="2"/>
     </row>
+    <row r="322" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D322" s="2"/>
+    </row>
     <row r="323" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D323" s="2"/>
       <c r="L323" s="2"/>
       <c r="N323" s="2"/>
       <c r="P323" s="2"/>
       <c r="AH323" s="2"/>
     </row>
     <row r="324" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D324" s="2"/>
       <c r="L324" s="2"/>
       <c r="N324" s="2"/>
       <c r="P324" s="2"/>
       <c r="AH324" s="2"/>
     </row>
     <row r="326" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D326" s="2"/>
       <c r="L326" s="2"/>
       <c r="N326" s="2"/>
       <c r="P326" s="2"/>

--- a/SignalAnalysis/localization/Korean (ko-KR) translation.xlsx
+++ b/SignalAnalysis/localization/Korean (ko-KR) translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthurit\source\repos\SignalAnalysis\SignalAnalysis\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1663783E-AA15-4F91-A1BF-ADE14892E2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F594B55A-352A-4988-B950-E567982A3012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="333">
   <si>
     <t>Key</t>
   </si>
@@ -1008,6 +1008,41 @@
   </si>
   <si>
     <t>:</t>
+  </si>
+  <si>
+    <t>strAboutCompanyName</t>
+  </si>
+  <si>
+    <t>To be displayed in About window</t>
+  </si>
+  <si>
+    <t>Developed by {0}</t>
+  </si>
+  <si>
+    <t>strAboutCopyright</t>
+  </si>
+  <si>
+    <t>Copyright {0}</t>
+  </si>
+  <si>
+    <t>strAboutDescription</t>
+  </si>
+  <si>
+    <t>Analysis tool featuring basic descriptive statistics, FFT (fast Fourier transform), fractal dimension, differentiation, integration, and entropy for signals (elux files as well as generic ones).
+No commercial use allowed whatsoever. Contact the author for any inquiries.
+If you find this software useful, please consider supporting it!</t>
+  </si>
+  <si>
+    <t>strAboutProductName</t>
+  </si>
+  <si>
+    <t>Product name: {0}</t>
+  </si>
+  <si>
+    <t>strAboutVersion</t>
+  </si>
+  <si>
+    <t>Version {0}</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1132,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DD7C0AF-0A3F-45E4-9CF3-D3036D280B58}" name="Tabla13" displayName="Tabla13" ref="B2:E165" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="B2:E165" xr:uid="{64291C3F-0D0C-4C57-A011-4795D69358B3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E165">
-    <sortCondition ref="B2:B165"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DD7C0AF-0A3F-45E4-9CF3-D3036D280B58}" name="Tabla13" displayName="Tabla13" ref="B2:E170" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="B2:E170" xr:uid="{64291C3F-0D0C-4C57-A011-4795D69358B3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:E170">
+    <sortCondition ref="B2:B170"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{15B209E7-880B-40F3-8D04-E1E0C18F3997}" name="Key" dataDxfId="3"/>
@@ -1409,7 +1444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99272ECF-2233-463E-857F-E2B1C41A5F55}">
-  <dimension ref="B2:AH326"/>
+  <dimension ref="B2:AH327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,1547 +1485,1601 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>327</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>328</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>329</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" t="s">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>317</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" t="s">
-        <v>301</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>306</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>315</v>
+      </c>
+      <c r="C14" t="s">
+        <v>301</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>316</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>317</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="C16" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C17" t="s">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>317</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>303</v>
+      </c>
+      <c r="C22" t="s">
+        <v>301</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C53" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>297</v>
+        <v>88</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C54" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>311</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C55" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>309</v>
+        <v>92</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>318</v>
+        <v>93</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>321</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E56" s="1"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="C57" t="s">
+        <v>96</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>100</v>
+        <v>296</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>101</v>
+        <v>297</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>102</v>
+        <v>310</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>103</v>
+        <v>311</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>104</v>
+        <v>308</v>
+      </c>
+      <c r="C60" t="s">
+        <v>96</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>105</v>
+        <v>309</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="1"/>
+        <v>319</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C65" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="C67" t="s">
+        <v>317</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C69" t="s">
-        <v>301</v>
+        <v>112</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>302</v>
+        <v>113</v>
       </c>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
-        <v>120</v>
+        <v>307</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
-        <v>128</v>
+        <v>300</v>
+      </c>
+      <c r="C74" t="s">
+        <v>301</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="4" t="s">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B83" s="4" t="s">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C106" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C107" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C108" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C109" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
+      </c>
+      <c r="C111" t="s">
+        <v>190</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
+      </c>
+      <c r="C112" t="s">
+        <v>190</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
+      </c>
+      <c r="C113" t="s">
+        <v>190</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="C114" t="s">
+        <v>190</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>38</v>
+        <v>234</v>
       </c>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C144" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B146" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E146" s="1"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C147" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C149" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C150" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C151" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>313</v>
+        <v>260</v>
       </c>
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="C152" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
+      </c>
+      <c r="C154" t="s">
+        <v>264</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
+      </c>
+      <c r="C155" t="s">
+        <v>264</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="4" t="s">
-        <v>276</v>
+        <v>312</v>
+      </c>
+      <c r="C156" t="s">
+        <v>264</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
+      </c>
+      <c r="C157" t="s">
+        <v>264</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E161" s="1"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>288</v>
+        <v>103</v>
       </c>
       <c r="E162" s="1"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E165" s="1"/>
-    </row>
-    <row r="180" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D180" s="2"/>
-    </row>
-    <row r="182" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D182" s="2"/>
+      <c r="E170" s="1"/>
     </row>
     <row r="184" spans="4:34" x14ac:dyDescent="0.25">
       <c r="F184" s="2"/>
@@ -3003,6 +3092,9 @@
       <c r="AB184" s="2"/>
       <c r="AD184" s="2"/>
       <c r="AF184" s="2"/>
+    </row>
+    <row r="185" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D185" s="2"/>
     </row>
     <row r="186" spans="4:34" x14ac:dyDescent="0.25">
       <c r="F186" s="2"/>
@@ -3021,14 +3113,10 @@
       <c r="AF186" s="2"/>
       <c r="AH186" s="2"/>
     </row>
-    <row r="225" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D225" s="2"/>
-    </row>
-    <row r="227" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D227" s="2"/>
+    <row r="187" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D187" s="2"/>
     </row>
     <row r="229" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D229" s="2"/>
       <c r="F229" s="2"/>
       <c r="H229" s="2"/>
       <c r="J229" s="2"/>
@@ -3044,8 +3132,10 @@
       <c r="AF229" s="2"/>
       <c r="AH229" s="2"/>
     </row>
+    <row r="230" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D230" s="2"/>
+    </row>
     <row r="231" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D231" s="2"/>
       <c r="F231" s="2"/>
       <c r="H231" s="2"/>
       <c r="J231" s="2"/>
@@ -3062,8 +3152,10 @@
       <c r="AF231" s="2"/>
       <c r="AH231" s="2"/>
     </row>
+    <row r="232" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D232" s="2"/>
+    </row>
     <row r="233" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D233" s="2"/>
       <c r="F233" s="2"/>
       <c r="H233" s="2"/>
       <c r="J233" s="2"/>
@@ -3080,6 +3172,9 @@
       <c r="AF233" s="2"/>
       <c r="AH233" s="2"/>
     </row>
+    <row r="234" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D234" s="2"/>
+    </row>
     <row r="235" spans="4:34" x14ac:dyDescent="0.25">
       <c r="F235" s="2"/>
       <c r="H235" s="2"/>
@@ -3091,6 +3186,9 @@
       <c r="AB235" s="2"/>
       <c r="AD235" s="2"/>
       <c r="AF235" s="2"/>
+    </row>
+    <row r="236" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D236" s="2"/>
     </row>
     <row r="237" spans="4:34" x14ac:dyDescent="0.25">
       <c r="F237" s="2"/>
@@ -3108,10 +3206,10 @@
       <c r="AF237" s="2"/>
       <c r="AH237" s="2"/>
     </row>
-    <row r="239" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D239" s="2"/>
-    </row>
-    <row r="243" spans="6:32" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D238" s="2"/>
+    </row>
+    <row r="243" spans="4:32" x14ac:dyDescent="0.25">
       <c r="F243" s="2"/>
       <c r="H243" s="2"/>
       <c r="J243" s="2"/>
@@ -3125,13 +3223,10 @@
       <c r="AD243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D269" s="2"/>
-    </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D270" s="2"/>
-    </row>
-    <row r="273" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D244" s="2"/>
+    </row>
+    <row r="273" spans="4:34" x14ac:dyDescent="0.25">
       <c r="F273" s="2"/>
       <c r="H273" s="2"/>
       <c r="J273" s="2"/>
@@ -3148,7 +3243,8 @@
       <c r="AF273" s="2"/>
       <c r="AH273" s="2"/>
     </row>
-    <row r="274" spans="6:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D274" s="2"/>
       <c r="F274" s="2"/>
       <c r="H274" s="2"/>
       <c r="J274" s="2"/>
@@ -3165,21 +3261,17 @@
       <c r="AF274" s="2"/>
       <c r="AH274" s="2"/>
     </row>
-    <row r="316" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D316" s="2"/>
-    </row>
-    <row r="319" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D319" s="2"/>
-    </row>
-    <row r="320" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D320" s="2"/>
+    <row r="275" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D275" s="2"/>
+    </row>
+    <row r="320" spans="12:34" x14ac:dyDescent="0.25">
       <c r="L320" s="2"/>
       <c r="N320" s="2"/>
       <c r="P320" s="2"/>
       <c r="AH320" s="2"/>
     </row>
-    <row r="322" spans="4:34" x14ac:dyDescent="0.25">
-      <c r="D322" s="2"/>
+    <row r="321" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D321" s="2"/>
     </row>
     <row r="323" spans="4:34" x14ac:dyDescent="0.25">
       <c r="L323" s="2"/>
@@ -3188,16 +3280,23 @@
       <c r="AH323" s="2"/>
     </row>
     <row r="324" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D324" s="2"/>
       <c r="L324" s="2"/>
       <c r="N324" s="2"/>
       <c r="P324" s="2"/>
       <c r="AH324" s="2"/>
+    </row>
+    <row r="325" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D325" s="2"/>
     </row>
     <row r="326" spans="4:34" x14ac:dyDescent="0.25">
       <c r="L326" s="2"/>
       <c r="N326" s="2"/>
       <c r="P326" s="2"/>
       <c r="AH326" s="2"/>
+    </row>
+    <row r="327" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D327" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SignalAnalysis/localization/Korean (ko-KR) translation.xlsx
+++ b/SignalAnalysis/localization/Korean (ko-KR) translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44993843R\source\repos\SignalAnalysis\SignalAnalysis\localization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthurit\source\repos\SignalAnalysis\SignalAnalysis\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235033E8-2DBC-4671-90E8-8CDE0CC43D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37BB4B8-AF1A-4586-B792-D4FA74670415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="12645" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
   </bookViews>
   <sheets>
     <sheet name="ko-KR" sheetId="2" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="382">
   <si>
     <t>Key</t>
   </si>
@@ -1192,6 +1181,15 @@
   </si>
   <si>
     <t>Round up (add zeros)</t>
+  </si>
+  <si>
+    <t>strChkWindowPosition</t>
+  </si>
+  <si>
+    <t>In "settings" form, tab "User interface"</t>
+  </si>
+  <si>
+    <t>Remember window position and size on startup</t>
   </si>
 </sst>
 </file>
@@ -1256,9 +1254,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1266,6 +1261,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1284,17 +1282,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DD7C0AF-0A3F-45E4-9CF3-D3036D280B58}" name="Tabla13" displayName="Tabla13" ref="B2:F192" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="B2:F192" xr:uid="{64291C3F-0D0C-4C57-A011-4795D69358B3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F170">
-    <sortCondition ref="C2:C170"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0DD7C0AF-0A3F-45E4-9CF3-D3036D280B58}" name="Tabla13" displayName="Tabla13" ref="B2:F193" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="B2:F193" xr:uid="{64291C3F-0D0C-4C57-A011-4795D69358B3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F171">
+    <sortCondition ref="C2:C171"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{2FFC226D-CB51-4AD7-81C6-32D99E75ECC9}" name="File" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{15B209E7-880B-40F3-8D04-E1E0C18F3997}" name="Key" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{1492BE55-1C7C-4C02-9979-85AD6633F924}" name="Comment" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{3A0B826D-ACD0-42A2-BC11-CDF70F40C5E5}" name="English" dataDxfId="2"/>
-    <tableColumn id="31" xr3:uid="{482B5252-4A88-4C9D-8D6A-67323FB06C35}" name="ko-KR" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2FFC226D-CB51-4AD7-81C6-32D99E75ECC9}" name="File" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{15B209E7-880B-40F3-8D04-E1E0C18F3997}" name="Key" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1492BE55-1C7C-4C02-9979-85AD6633F924}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3A0B826D-ACD0-42A2-BC11-CDF70F40C5E5}" name="English" dataDxfId="1"/>
+    <tableColumn id="31" xr3:uid="{482B5252-4A88-4C9D-8D6A-67323FB06C35}" name="ko-KR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1597,33 +1595,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99272ECF-2233-463E-857F-E2B1C41A5F55}">
-  <dimension ref="B2:AH327"/>
+  <dimension ref="B2:AH328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
-    <col min="6" max="6" width="57.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" customWidth="1"/>
-    <col min="17" max="17" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" customWidth="1"/>
     <col min="25" max="25" width="17" customWidth="1"/>
-    <col min="27" max="27" width="17.33203125" customWidth="1"/>
-    <col min="29" max="29" width="17.5546875" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>328</v>
       </c>
@@ -1640,7 +1638,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>329</v>
       </c>
@@ -1655,7 +1653,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>329</v>
       </c>
@@ -1670,7 +1668,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>329</v>
       </c>
@@ -1685,7 +1683,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>329</v>
       </c>
@@ -1700,7 +1698,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>329</v>
       </c>
@@ -1715,7 +1713,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>329</v>
       </c>
@@ -1730,7 +1728,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>329</v>
       </c>
@@ -1745,7 +1743,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>329</v>
       </c>
@@ -1760,7 +1758,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>329</v>
       </c>
@@ -1775,7 +1773,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>349</v>
       </c>
@@ -1790,7 +1788,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>349</v>
       </c>
@@ -1805,7 +1803,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="150" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>349</v>
       </c>
@@ -1820,7 +1818,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>349</v>
       </c>
@@ -1835,7 +1833,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>349</v>
       </c>
@@ -1850,7 +1848,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>349</v>
       </c>
@@ -1865,7 +1863,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>349</v>
       </c>
@@ -1880,7 +1878,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>349</v>
       </c>
@@ -1895,7 +1893,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>349</v>
       </c>
@@ -1910,7 +1908,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>349</v>
       </c>
@@ -1925,7 +1923,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>349</v>
       </c>
@@ -1940,7 +1938,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>349</v>
       </c>
@@ -1955,7 +1953,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>349</v>
       </c>
@@ -1970,7 +1968,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>349</v>
       </c>
@@ -1985,7 +1983,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>349</v>
       </c>
@@ -2000,7 +1998,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>349</v>
       </c>
@@ -2015,7 +2013,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>349</v>
       </c>
@@ -2030,22 +2028,22 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D29" t="s">
-        <v>331</v>
+      <c r="D29" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>349</v>
       </c>
@@ -2060,7 +2058,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>349</v>
       </c>
@@ -2075,7 +2073,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>349</v>
       </c>
@@ -2090,7 +2088,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>349</v>
       </c>
@@ -2105,2545 +2103,2542 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D35" t="s">
-        <v>331</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="D36" t="s">
+        <v>331</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D36" t="s">
-        <v>331</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D37" t="s">
+        <v>331</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D37" t="s">
-        <v>331</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D38" t="s">
+        <v>331</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D38" t="s">
-        <v>331</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D39" t="s">
+        <v>331</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D39" t="s">
-        <v>331</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D40" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D40" t="s">
-        <v>331</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D41" t="s">
+        <v>331</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D41" t="s">
-        <v>331</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D42" t="s">
+        <v>331</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D42" t="s">
-        <v>331</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="D43" t="s">
+        <v>331</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D43" t="s">
-        <v>331</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D44" t="s">
+        <v>331</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D44" t="s">
-        <v>331</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D45" t="s">
+        <v>331</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D45" t="s">
-        <v>331</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D46" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D46" t="s">
-        <v>331</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="D47" t="s">
+        <v>331</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D47" t="s">
-        <v>331</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="D48" t="s">
+        <v>331</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D48" t="s">
-        <v>331</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="D49" t="s">
+        <v>331</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D49" t="s">
-        <v>331</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="D50" t="s">
+        <v>331</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D50" t="s">
-        <v>331</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="D51" t="s">
+        <v>331</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D51" t="s">
-        <v>331</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="D52" t="s">
+        <v>331</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D52" t="s">
-        <v>331</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="D53" t="s">
+        <v>331</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D53" t="s">
-        <v>331</v>
-      </c>
-      <c r="E53" s="3" t="s">
+      <c r="D54" t="s">
+        <v>331</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C54" s="4" t="s">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D54" t="s">
-        <v>331</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="D55" t="s">
+        <v>331</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D55" t="s">
-        <v>331</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="D56" t="s">
+        <v>331</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D56" t="s">
-        <v>331</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="D57" t="s">
+        <v>331</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D57" t="s">
-        <v>331</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="D58" t="s">
+        <v>331</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C58" s="4" t="s">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D58" t="s">
-        <v>331</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D59" t="s">
+        <v>331</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C59" s="4" t="s">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D59" t="s">
-        <v>331</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D60" t="s">
+        <v>331</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D60" t="s">
-        <v>331</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="D61" t="s">
+        <v>331</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D61" t="s">
-        <v>331</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="D62" t="s">
+        <v>331</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D62" t="s">
-        <v>331</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="D63" t="s">
+        <v>331</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C63" s="4" t="s">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D63" t="s">
-        <v>331</v>
-      </c>
-      <c r="E63" s="3" t="s">
+      <c r="D64" t="s">
+        <v>331</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C64" s="4" t="s">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D64" t="s">
-        <v>331</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="D65" t="s">
+        <v>331</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D65" t="s">
-        <v>331</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="D66" t="s">
+        <v>331</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D66" t="s">
-        <v>331</v>
-      </c>
-      <c r="E66" s="3" t="s">
+      <c r="D67" t="s">
+        <v>331</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D67" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="D68" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>292</v>
+        <v>92</v>
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="D69" t="s">
         <v>91</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D70" t="s">
         <v>91</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71" t="s">
+        <v>91</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C71" s="4" t="s">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D71" t="s">
-        <v>331</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="D72" t="s">
+        <v>331</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D72" t="s">
-        <v>331</v>
-      </c>
-      <c r="E72" s="3" t="s">
+      <c r="D73" t="s">
+        <v>331</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C73" s="4" t="s">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D73" t="s">
-        <v>331</v>
-      </c>
-      <c r="E73" s="3" t="s">
+      <c r="D74" t="s">
+        <v>331</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C74" s="4" t="s">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D74" t="s">
-        <v>331</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="D75" t="s">
+        <v>331</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D75" t="s">
-        <v>331</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="D76" t="s">
+        <v>331</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D76" t="s">
-        <v>331</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="D77" t="s">
+        <v>331</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C77" s="4" t="s">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D77" t="s">
-        <v>331</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="D78" t="s">
+        <v>331</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D78" t="s">
-        <v>331</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="D79" t="s">
+        <v>331</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C79" s="4" t="s">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D79" t="s">
-        <v>331</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="D80" t="s">
+        <v>331</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C80" s="4" t="s">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D80" t="s">
-        <v>331</v>
-      </c>
-      <c r="E80" s="3" t="s">
+      <c r="D81" t="s">
+        <v>331</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C81" s="4" t="s">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D81" t="s">
-        <v>331</v>
-      </c>
-      <c r="E81" s="3" t="s">
+      <c r="D82" t="s">
+        <v>331</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D82" t="s">
-        <v>331</v>
-      </c>
-      <c r="E82" s="3" t="s">
+      <c r="D83" t="s">
+        <v>331</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C83" s="4" t="s">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D83" t="s">
-        <v>331</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="D84" t="s">
+        <v>331</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C84" s="4" t="s">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>312</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C85" s="4" t="s">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D85" t="s">
-        <v>331</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="D86" t="s">
+        <v>331</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C86" s="4" t="s">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D86" t="s">
-        <v>331</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="D87" t="s">
+        <v>331</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D87" t="s">
-        <v>331</v>
-      </c>
-      <c r="E87" s="3" t="s">
+      <c r="D88" t="s">
+        <v>331</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B88" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C88" s="4" t="s">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C89" s="4" t="s">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D89" t="s">
-        <v>331</v>
-      </c>
-      <c r="E89" s="3" t="s">
+      <c r="D90" t="s">
+        <v>331</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C90" s="4" t="s">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D90" t="s">
-        <v>331</v>
-      </c>
-      <c r="E90" s="3" t="s">
+      <c r="D91" t="s">
+        <v>331</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B91" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C91" s="4" t="s">
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D91" t="s">
-        <v>331</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D92" t="s">
+        <v>331</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B92" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C92" s="4" t="s">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>296</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E93" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C93" s="4" t="s">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D93" t="s">
-        <v>331</v>
-      </c>
-      <c r="E93" s="3" t="s">
+      <c r="D94" t="s">
+        <v>331</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B94" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C94" s="4" t="s">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D94" t="s">
-        <v>331</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="D95" t="s">
+        <v>331</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B95" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C95" s="4" t="s">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D95" t="s">
-        <v>331</v>
-      </c>
-      <c r="E95" s="3" t="s">
+      <c r="D96" t="s">
+        <v>331</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B96" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C96" s="4" t="s">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D96" t="s">
-        <v>331</v>
-      </c>
-      <c r="E96" s="3" t="s">
+      <c r="D97" t="s">
+        <v>331</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C97" s="4" t="s">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D97" t="s">
-        <v>331</v>
-      </c>
-      <c r="E97" s="3" t="s">
+      <c r="D98" t="s">
+        <v>331</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B98" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C98" s="4" t="s">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D98" t="s">
-        <v>331</v>
-      </c>
-      <c r="E98" s="3" t="s">
+      <c r="D99" t="s">
+        <v>331</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B99" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D99" t="s">
-        <v>331</v>
-      </c>
-      <c r="E99" s="3" t="s">
+      <c r="D100" t="s">
+        <v>331</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B100" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C100" s="4" t="s">
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D100" t="s">
-        <v>331</v>
-      </c>
-      <c r="E100" s="3" t="s">
+      <c r="D101" t="s">
+        <v>331</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B101" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C101" s="4" t="s">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D101" t="s">
-        <v>331</v>
-      </c>
-      <c r="E101" s="3" t="s">
+      <c r="D102" t="s">
+        <v>331</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B102" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D102" t="s">
-        <v>331</v>
-      </c>
-      <c r="E102" s="3" t="s">
+      <c r="D103" t="s">
+        <v>331</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B103" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C103" s="4" t="s">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D103" t="s">
-        <v>331</v>
-      </c>
-      <c r="E103" s="3" t="s">
+      <c r="D104" t="s">
+        <v>331</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B104" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C104" s="4" t="s">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D104" t="s">
-        <v>331</v>
-      </c>
-      <c r="E104" s="3" t="s">
+      <c r="D105" t="s">
+        <v>331</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B105" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C105" s="4" t="s">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D105" t="s">
-        <v>331</v>
-      </c>
-      <c r="E105" s="3" t="s">
+      <c r="D106" t="s">
+        <v>331</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B106" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C106" s="4" t="s">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D106" t="s">
-        <v>331</v>
-      </c>
-      <c r="E106" s="3" t="s">
+      <c r="D107" t="s">
+        <v>331</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C107" s="4" t="s">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D107" t="s">
-        <v>331</v>
-      </c>
-      <c r="E107" s="3" t="s">
+      <c r="D108" t="s">
+        <v>331</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B108" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C108" s="4" t="s">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D108" t="s">
-        <v>331</v>
-      </c>
-      <c r="E108" s="3" t="s">
+      <c r="D109" t="s">
+        <v>331</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C109" s="4" t="s">
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D109" t="s">
-        <v>331</v>
-      </c>
-      <c r="E109" s="3" t="s">
+      <c r="D110" t="s">
+        <v>331</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B110" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D110" t="s">
-        <v>331</v>
-      </c>
-      <c r="E110" s="3" t="s">
+      <c r="D111" t="s">
+        <v>331</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B111" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C111" s="4" t="s">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D111" t="s">
-        <v>331</v>
-      </c>
-      <c r="E111" s="3" t="s">
+      <c r="D112" t="s">
+        <v>331</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B112" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C112" s="4" t="s">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D112" t="s">
-        <v>331</v>
-      </c>
-      <c r="E112" s="3" t="s">
+      <c r="D113" t="s">
+        <v>331</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C113" s="4" t="s">
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D113" t="s">
-        <v>331</v>
-      </c>
-      <c r="E113" s="3" t="s">
+      <c r="D114" t="s">
+        <v>331</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C114" s="4" t="s">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D114" t="s">
-        <v>331</v>
-      </c>
-      <c r="E114" s="3" t="s">
+      <c r="D115" t="s">
+        <v>331</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C115" s="4" t="s">
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D115" t="s">
-        <v>331</v>
-      </c>
-      <c r="E115" s="3" t="s">
+      <c r="D116" t="s">
+        <v>331</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C116" s="4" t="s">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D116" t="s">
-        <v>331</v>
-      </c>
-      <c r="E116" s="3" t="s">
+      <c r="D117" t="s">
+        <v>331</v>
+      </c>
+      <c r="E117" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B117" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C117" s="4" t="s">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D117" t="s">
-        <v>331</v>
-      </c>
-      <c r="E117" s="3" t="s">
+      <c r="D118" t="s">
+        <v>331</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B118" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C118" s="4" t="s">
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D118" t="s">
-        <v>331</v>
-      </c>
-      <c r="E118" s="3" t="s">
+      <c r="D119" t="s">
+        <v>331</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C119" s="4" t="s">
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D119" t="s">
-        <v>331</v>
-      </c>
-      <c r="E119" s="3" t="s">
+      <c r="D120" t="s">
+        <v>331</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C120" s="4" t="s">
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D120" t="s">
-        <v>331</v>
-      </c>
-      <c r="E120" s="3" t="s">
+      <c r="D121" t="s">
+        <v>331</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B121" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C121" s="4" t="s">
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D121" t="s">
-        <v>331</v>
-      </c>
-      <c r="E121" s="3" t="s">
+      <c r="D122" t="s">
+        <v>331</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B122" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C122" s="4" t="s">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D122" t="s">
-        <v>331</v>
-      </c>
-      <c r="E122" s="3" t="s">
+      <c r="D123" t="s">
+        <v>331</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B123" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C123" s="4" t="s">
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D123" t="s">
-        <v>331</v>
-      </c>
-      <c r="E123" s="3" t="s">
+      <c r="D124" t="s">
+        <v>331</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B124" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C124" s="4" t="s">
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D124" t="s">
-        <v>331</v>
-      </c>
-      <c r="E124" s="3" t="s">
+      <c r="D125" t="s">
+        <v>331</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B125" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C125" s="4" t="s">
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D125" t="s">
-        <v>331</v>
-      </c>
-      <c r="E125" s="3" t="s">
+      <c r="D126" t="s">
+        <v>331</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B126" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C126" s="4" t="s">
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D126" t="s">
-        <v>331</v>
-      </c>
-      <c r="E126" s="3" t="s">
+      <c r="D127" t="s">
+        <v>331</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B127" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C127" s="4" t="s">
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D127" t="s">
-        <v>331</v>
-      </c>
-      <c r="E127" s="3" t="s">
+      <c r="D128" t="s">
+        <v>331</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B128" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C128" s="4" t="s">
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D128" t="s">
-        <v>331</v>
-      </c>
-      <c r="E128" s="3" t="s">
+      <c r="D129" t="s">
+        <v>331</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B129" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C129" s="4" t="s">
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D129" t="s">
-        <v>331</v>
-      </c>
-      <c r="E129" s="3" t="s">
+      <c r="D130" t="s">
+        <v>331</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B130" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C130" s="4" t="s">
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D130" t="s">
-        <v>331</v>
-      </c>
-      <c r="E130" s="3" t="s">
+      <c r="D131" t="s">
+        <v>331</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B131" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C131" s="4" t="s">
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D131" t="s">
-        <v>185</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B132" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="D132" t="s">
         <v>185</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D133" t="s">
         <v>185</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D134" t="s">
         <v>185</v>
       </c>
       <c r="E134" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D135" t="s">
+        <v>185</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B135" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C135" s="4" t="s">
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D135" t="s">
-        <v>331</v>
-      </c>
-      <c r="E135" s="3" t="s">
+      <c r="D136" t="s">
+        <v>331</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B136" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C136" s="4" t="s">
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D136" t="s">
-        <v>331</v>
-      </c>
-      <c r="E136" s="3" t="s">
+      <c r="D137" t="s">
+        <v>331</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B137" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C137" s="4" t="s">
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D137" t="s">
-        <v>331</v>
-      </c>
-      <c r="E137" s="3" t="s">
+      <c r="D138" t="s">
+        <v>331</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B138" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C138" s="4" t="s">
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D138" t="s">
-        <v>331</v>
-      </c>
-      <c r="E138" s="3" t="s">
+      <c r="D139" t="s">
+        <v>331</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B139" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C139" s="4" t="s">
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D139" t="s">
-        <v>331</v>
-      </c>
-      <c r="E139" s="3" t="s">
+      <c r="D140" t="s">
+        <v>331</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B140" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C140" s="4" t="s">
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D140" t="s">
-        <v>331</v>
-      </c>
-      <c r="E140" s="3" t="s">
+      <c r="D141" t="s">
+        <v>331</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B141" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C141" s="4" t="s">
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D141" t="s">
-        <v>331</v>
-      </c>
-      <c r="E141" s="3" t="s">
+      <c r="D142" t="s">
+        <v>331</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B142" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C142" s="4" t="s">
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D142" t="s">
-        <v>331</v>
-      </c>
-      <c r="E142" s="3" t="s">
+      <c r="D143" t="s">
+        <v>331</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B143" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C143" s="4" t="s">
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D143" t="s">
-        <v>331</v>
-      </c>
-      <c r="E143" s="3" t="s">
+      <c r="D144" t="s">
+        <v>331</v>
+      </c>
+      <c r="E144" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B144" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C144" s="4" t="s">
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D144" t="s">
-        <v>331</v>
-      </c>
-      <c r="E144" s="3" t="s">
+      <c r="D145" t="s">
+        <v>331</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B145" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C145" s="4" t="s">
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D145" t="s">
-        <v>331</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="D146" t="s">
+        <v>331</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B146" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C146" s="4" t="s">
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D146" t="s">
-        <v>331</v>
-      </c>
-      <c r="E146" s="3" t="s">
+      <c r="D147" t="s">
+        <v>331</v>
+      </c>
+      <c r="E147" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B147" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C147" s="4" t="s">
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D147" t="s">
-        <v>331</v>
-      </c>
-      <c r="E147" s="3" t="s">
+      <c r="D148" t="s">
+        <v>331</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B148" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C148" s="4" t="s">
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D148" t="s">
-        <v>331</v>
-      </c>
-      <c r="E148" s="3" t="s">
+      <c r="D149" t="s">
+        <v>331</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B149" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C149" s="4" t="s">
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D149" t="s">
-        <v>331</v>
-      </c>
-      <c r="E149" s="3" t="s">
+      <c r="D150" t="s">
+        <v>331</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B150" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C150" s="4" t="s">
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D150" t="s">
-        <v>331</v>
-      </c>
-      <c r="E150" s="3" t="s">
+      <c r="D151" t="s">
+        <v>331</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B151" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C151" s="4" t="s">
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D151" t="s">
-        <v>331</v>
-      </c>
-      <c r="E151" s="3" t="s">
+      <c r="D152" t="s">
+        <v>331</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B152" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C152" s="4" t="s">
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D152" t="s">
-        <v>331</v>
-      </c>
-      <c r="E152" s="3" t="s">
+      <c r="D153" t="s">
+        <v>331</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B153" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C153" s="4" t="s">
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C154" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D153" t="s">
-        <v>331</v>
-      </c>
-      <c r="E153" s="3" t="s">
+      <c r="D154" t="s">
+        <v>331</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B154" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C154" s="4" t="s">
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C155" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D154" t="s">
-        <v>331</v>
-      </c>
-      <c r="E154" s="3" t="s">
+      <c r="D155" t="s">
+        <v>331</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B155" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C155" s="4" t="s">
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="D155" t="s">
-        <v>331</v>
-      </c>
-      <c r="E155" s="3" t="s">
+      <c r="D156" t="s">
+        <v>331</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B156" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C156" s="4" t="s">
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="D156" t="s">
-        <v>331</v>
-      </c>
-      <c r="E156" s="3" t="s">
+      <c r="D157" t="s">
+        <v>331</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B157" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C157" s="4" t="s">
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C158" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D157" t="s">
-        <v>331</v>
-      </c>
-      <c r="E157" s="3" t="s">
+      <c r="D158" t="s">
+        <v>331</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B158" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C158" s="4" t="s">
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C159" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D158" t="s">
-        <v>331</v>
-      </c>
-      <c r="E158" s="3" t="s">
+      <c r="D159" t="s">
+        <v>331</v>
+      </c>
+      <c r="E159" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B159" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C159" s="4" t="s">
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C160" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D159" t="s">
-        <v>331</v>
-      </c>
-      <c r="E159" s="3" t="s">
+      <c r="D160" t="s">
+        <v>331</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B160" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C160" s="4" t="s">
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D160" t="s">
-        <v>331</v>
-      </c>
-      <c r="E160" s="3" t="s">
+      <c r="D161" t="s">
+        <v>331</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B161" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C161" s="4" t="s">
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D161" t="s">
-        <v>331</v>
-      </c>
-      <c r="E161" s="3" t="s">
+      <c r="D162" t="s">
+        <v>331</v>
+      </c>
+      <c r="E162" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B162" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C162" s="4" t="s">
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="D162" t="s">
-        <v>331</v>
-      </c>
-      <c r="E162" s="3" t="s">
+      <c r="D163" t="s">
+        <v>331</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B163" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C163" s="4" t="s">
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D163" t="s">
-        <v>331</v>
-      </c>
-      <c r="E163" s="3" t="s">
+      <c r="D164" t="s">
+        <v>331</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B164" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C164" s="4" t="s">
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D164" t="s">
-        <v>331</v>
-      </c>
-      <c r="E164" s="3" t="s">
+      <c r="D165" t="s">
+        <v>331</v>
+      </c>
+      <c r="E165" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B165" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C165" s="4" t="s">
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C166" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D165" t="s">
-        <v>331</v>
-      </c>
-      <c r="E165" s="3" t="s">
+      <c r="D166" t="s">
+        <v>331</v>
+      </c>
+      <c r="E166" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B166" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C166" s="4" t="s">
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D166" t="s">
-        <v>331</v>
-      </c>
-      <c r="E166" s="3" t="s">
+      <c r="D167" t="s">
+        <v>331</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B167" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C167" s="4" t="s">
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D167" t="s">
-        <v>331</v>
-      </c>
-      <c r="E167" s="3" t="s">
+      <c r="D168" t="s">
+        <v>331</v>
+      </c>
+      <c r="E168" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B168" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C168" s="4" t="s">
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D168" t="s">
-        <v>331</v>
-      </c>
-      <c r="E168" s="3" t="s">
+      <c r="D169" t="s">
+        <v>331</v>
+      </c>
+      <c r="E169" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B169" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C169" s="4" t="s">
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D169" t="s">
-        <v>331</v>
-      </c>
-      <c r="E169" s="3" t="s">
+      <c r="D170" t="s">
+        <v>331</v>
+      </c>
+      <c r="E170" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B170" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C170" s="4" t="s">
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D170" t="s">
-        <v>331</v>
-      </c>
-      <c r="E170" s="3" t="s">
+      <c r="D171" t="s">
+        <v>331</v>
+      </c>
+      <c r="E171" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B171" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C171" s="4" t="s">
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E172" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B172" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C172" s="4" t="s">
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E172" s="3" t="s">
+      <c r="D173" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B173" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C173" s="4" t="s">
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E173" s="3" t="s">
+      <c r="D174" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B174" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C174" s="4" t="s">
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E175" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B175" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C175" s="4" t="s">
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E175" s="3" t="s">
+      <c r="D176" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B176" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C176" s="4" t="s">
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C177" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B177" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="2:34" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E179" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F179" s="1"/>
+    </row>
+    <row r="180" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E180" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B180" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C180" s="4" t="s">
+      <c r="F180" s="1"/>
+    </row>
+    <row r="181" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E180" s="3" t="s">
+      <c r="D181" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B181" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C181" s="4" t="s">
+      <c r="F181" s="1"/>
+    </row>
+    <row r="182" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C182" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E181" s="3" t="s">
+      <c r="D182" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E182" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B182" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C182" s="4" t="s">
+      <c r="F182" s="1"/>
+    </row>
+    <row r="183" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E182" s="3" t="s">
+      <c r="D183" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B183" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C183" s="4" t="s">
+      <c r="F183" s="1"/>
+    </row>
+    <row r="184" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C184" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E183" s="3" t="s">
+      <c r="D184" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B184" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C184" s="4" t="s">
+      <c r="F184" s="1"/>
+    </row>
+    <row r="185" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C185" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E184" s="3" t="s">
+      <c r="D185" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E185" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F184" s="1"/>
-      <c r="H184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="V184" s="2"/>
-      <c r="X184" s="2"/>
-      <c r="Z184" s="2"/>
-      <c r="AB184" s="2"/>
-      <c r="AD184" s="2"/>
-      <c r="AF184" s="2"/>
-    </row>
-    <row r="185" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B185" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C185" s="4" t="s">
+      <c r="F185" s="1"/>
+      <c r="H185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="V185" s="2"/>
+      <c r="X185" s="2"/>
+      <c r="Z185" s="2"/>
+      <c r="AB185" s="2"/>
+      <c r="AD185" s="2"/>
+      <c r="AF185" s="2"/>
+    </row>
+    <row r="186" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C186" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E185" s="3" t="s">
+      <c r="D186" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E186" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B186" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C186" s="4" t="s">
+      <c r="F186" s="1"/>
+    </row>
+    <row r="187" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E186" s="3" t="s">
+      <c r="D187" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E187" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F186" s="1"/>
-      <c r="H186" s="2"/>
-      <c r="J186" s="2"/>
-      <c r="L186" s="2"/>
-      <c r="N186" s="2"/>
-      <c r="P186" s="2"/>
-      <c r="R186" s="2"/>
-      <c r="T186" s="2"/>
-      <c r="V186" s="2"/>
-      <c r="X186" s="2"/>
-      <c r="Z186" s="2"/>
-      <c r="AB186" s="2"/>
-      <c r="AD186" s="2"/>
-      <c r="AF186" s="2"/>
-      <c r="AH186" s="2"/>
-    </row>
-    <row r="187" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B187" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C187" s="4" t="s">
+      <c r="F187" s="1"/>
+      <c r="H187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="P187" s="2"/>
+      <c r="R187" s="2"/>
+      <c r="T187" s="2"/>
+      <c r="V187" s="2"/>
+      <c r="X187" s="2"/>
+      <c r="Z187" s="2"/>
+      <c r="AB187" s="2"/>
+      <c r="AD187" s="2"/>
+      <c r="AF187" s="2"/>
+      <c r="AH187" s="2"/>
+    </row>
+    <row r="188" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C188" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E187" s="3" t="s">
+      <c r="D188" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E188" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B188" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C188" s="4" t="s">
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E188" s="3" t="s">
+      <c r="D189" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E189" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B189" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C189" s="4" t="s">
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E189" s="3" t="s">
+      <c r="D190" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E190" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B190" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C190" s="4" t="s">
+      <c r="F190" s="1"/>
+    </row>
+    <row r="191" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E190" s="3" t="s">
+      <c r="D191" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E191" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B191" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C191" s="4" t="s">
+      <c r="F191" s="1"/>
+    </row>
+    <row r="192" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C192" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E191" s="3" t="s">
+      <c r="D192" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E192" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B192" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C192" s="4" t="s">
+      <c r="F192" s="1"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E192" s="3" t="s">
+      <c r="D193" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E193" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F192" s="1"/>
-    </row>
-    <row r="229" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="F229" s="2"/>
-      <c r="H229" s="2"/>
-      <c r="J229" s="2"/>
-      <c r="L229" s="2"/>
-      <c r="N229" s="2"/>
-      <c r="P229" s="2"/>
-      <c r="R229" s="2"/>
-      <c r="T229" s="2"/>
-      <c r="X229" s="2"/>
-      <c r="Z229" s="2"/>
-      <c r="AB229" s="2"/>
-      <c r="AD229" s="2"/>
-      <c r="AF229" s="2"/>
-      <c r="AH229" s="2"/>
-    </row>
-    <row r="230" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D230" s="2"/>
-    </row>
-    <row r="231" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="F231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="P231" s="2"/>
-      <c r="R231" s="2"/>
-      <c r="T231" s="2"/>
-      <c r="V231" s="2"/>
-      <c r="X231" s="2"/>
-      <c r="Z231" s="2"/>
-      <c r="AB231" s="2"/>
-      <c r="AD231" s="2"/>
-      <c r="AF231" s="2"/>
-      <c r="AH231" s="2"/>
-    </row>
-    <row r="232" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D232" s="2"/>
-    </row>
-    <row r="233" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="F233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="V233" s="2"/>
-      <c r="X233" s="2"/>
-      <c r="Z233" s="2"/>
-      <c r="AB233" s="2"/>
-      <c r="AD233" s="2"/>
-      <c r="AF233" s="2"/>
-      <c r="AH233" s="2"/>
-    </row>
-    <row r="234" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D234" s="2"/>
-    </row>
-    <row r="235" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="F235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="N235" s="2"/>
-      <c r="P235" s="2"/>
-      <c r="X235" s="2"/>
-      <c r="AB235" s="2"/>
-      <c r="AD235" s="2"/>
-      <c r="AF235" s="2"/>
-    </row>
-    <row r="236" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="F237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="L237" s="2"/>
-      <c r="N237" s="2"/>
-      <c r="P237" s="2"/>
-      <c r="R237" s="2"/>
-      <c r="T237" s="2"/>
-      <c r="X237" s="2"/>
-      <c r="Z237" s="2"/>
-      <c r="AB237" s="2"/>
-      <c r="AD237" s="2"/>
-      <c r="AF237" s="2"/>
-      <c r="AH237" s="2"/>
-    </row>
-    <row r="238" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D238" s="2"/>
-    </row>
-    <row r="243" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="F243" s="2"/>
-      <c r="H243" s="2"/>
-      <c r="J243" s="2"/>
-      <c r="L243" s="2"/>
-      <c r="N243" s="2"/>
-      <c r="P243" s="2"/>
-      <c r="V243" s="2"/>
-      <c r="X243" s="2"/>
-      <c r="Z243" s="2"/>
-      <c r="AB243" s="2"/>
-      <c r="AD243" s="2"/>
-      <c r="AF243" s="2"/>
-    </row>
-    <row r="244" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D244" s="2"/>
-    </row>
-    <row r="273" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="F273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="N273" s="2"/>
-      <c r="P273" s="2"/>
-      <c r="R273" s="2"/>
-      <c r="T273" s="2"/>
-      <c r="V273" s="2"/>
-      <c r="X273" s="2"/>
-      <c r="Z273" s="2"/>
-      <c r="AB273" s="2"/>
-      <c r="AD273" s="2"/>
-      <c r="AF273" s="2"/>
-      <c r="AH273" s="2"/>
-    </row>
-    <row r="274" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D274" s="2"/>
+      <c r="F193" s="1"/>
+    </row>
+    <row r="230" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="F230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="R230" s="2"/>
+      <c r="T230" s="2"/>
+      <c r="X230" s="2"/>
+      <c r="Z230" s="2"/>
+      <c r="AB230" s="2"/>
+      <c r="AD230" s="2"/>
+      <c r="AF230" s="2"/>
+      <c r="AH230" s="2"/>
+    </row>
+    <row r="231" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="F232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="T232" s="2"/>
+      <c r="V232" s="2"/>
+      <c r="X232" s="2"/>
+      <c r="Z232" s="2"/>
+      <c r="AB232" s="2"/>
+      <c r="AD232" s="2"/>
+      <c r="AF232" s="2"/>
+      <c r="AH232" s="2"/>
+    </row>
+    <row r="233" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D233" s="2"/>
+    </row>
+    <row r="234" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="F234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="T234" s="2"/>
+      <c r="V234" s="2"/>
+      <c r="X234" s="2"/>
+      <c r="Z234" s="2"/>
+      <c r="AB234" s="2"/>
+      <c r="AD234" s="2"/>
+      <c r="AF234" s="2"/>
+      <c r="AH234" s="2"/>
+    </row>
+    <row r="235" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D235" s="2"/>
+    </row>
+    <row r="236" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="F236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="N236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="X236" s="2"/>
+      <c r="AB236" s="2"/>
+      <c r="AD236" s="2"/>
+      <c r="AF236" s="2"/>
+    </row>
+    <row r="237" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D237" s="2"/>
+    </row>
+    <row r="238" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="F238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="N238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="X238" s="2"/>
+      <c r="Z238" s="2"/>
+      <c r="AB238" s="2"/>
+      <c r="AD238" s="2"/>
+      <c r="AF238" s="2"/>
+      <c r="AH238" s="2"/>
+    </row>
+    <row r="239" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D239" s="2"/>
+    </row>
+    <row r="244" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="F244" s="2"/>
+      <c r="H244" s="2"/>
+      <c r="J244" s="2"/>
+      <c r="L244" s="2"/>
+      <c r="N244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="V244" s="2"/>
+      <c r="X244" s="2"/>
+      <c r="Z244" s="2"/>
+      <c r="AB244" s="2"/>
+      <c r="AD244" s="2"/>
+      <c r="AF244" s="2"/>
+    </row>
+    <row r="245" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D245" s="2"/>
+    </row>
+    <row r="274" spans="4:34" x14ac:dyDescent="0.25">
       <c r="F274" s="2"/>
       <c r="H274" s="2"/>
       <c r="J274" s="2"/>
@@ -4660,42 +4655,60 @@
       <c r="AF274" s="2"/>
       <c r="AH274" s="2"/>
     </row>
-    <row r="275" spans="4:34" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D275" s="2"/>
-    </row>
-    <row r="320" spans="12:34" x14ac:dyDescent="0.3">
-      <c r="L320" s="2"/>
-      <c r="N320" s="2"/>
-      <c r="P320" s="2"/>
-      <c r="AH320" s="2"/>
-    </row>
-    <row r="321" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D321" s="2"/>
-    </row>
-    <row r="323" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="L323" s="2"/>
-      <c r="N323" s="2"/>
-      <c r="P323" s="2"/>
-      <c r="AH323" s="2"/>
-    </row>
-    <row r="324" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D324" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="H275" s="2"/>
+      <c r="J275" s="2"/>
+      <c r="L275" s="2"/>
+      <c r="N275" s="2"/>
+      <c r="P275" s="2"/>
+      <c r="R275" s="2"/>
+      <c r="T275" s="2"/>
+      <c r="V275" s="2"/>
+      <c r="X275" s="2"/>
+      <c r="Z275" s="2"/>
+      <c r="AB275" s="2"/>
+      <c r="AD275" s="2"/>
+      <c r="AF275" s="2"/>
+      <c r="AH275" s="2"/>
+    </row>
+    <row r="276" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D276" s="2"/>
+    </row>
+    <row r="321" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="L321" s="2"/>
+      <c r="N321" s="2"/>
+      <c r="P321" s="2"/>
+      <c r="AH321" s="2"/>
+    </row>
+    <row r="322" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D322" s="2"/>
+    </row>
+    <row r="324" spans="4:34" x14ac:dyDescent="0.25">
       <c r="L324" s="2"/>
       <c r="N324" s="2"/>
       <c r="P324" s="2"/>
       <c r="AH324" s="2"/>
     </row>
-    <row r="325" spans="4:34" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D325" s="2"/>
-    </row>
-    <row r="326" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="L326" s="2"/>
-      <c r="N326" s="2"/>
-      <c r="P326" s="2"/>
-      <c r="AH326" s="2"/>
-    </row>
-    <row r="327" spans="4:34" x14ac:dyDescent="0.3">
-      <c r="D327" s="2"/>
+      <c r="L325" s="2"/>
+      <c r="N325" s="2"/>
+      <c r="P325" s="2"/>
+      <c r="AH325" s="2"/>
+    </row>
+    <row r="326" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D326" s="2"/>
+    </row>
+    <row r="327" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="L327" s="2"/>
+      <c r="N327" s="2"/>
+      <c r="P327" s="2"/>
+      <c r="AH327" s="2"/>
+    </row>
+    <row r="328" spans="4:34" x14ac:dyDescent="0.25">
+      <c r="D328" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
